--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizi\OneDrive\Escritorio\UES 2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Vasquez\Desktop\UES-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC084F9-2AC1-46BD-B872-F89B8F97A669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379773D-322D-4870-8881-57E929B9F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -31,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
   <si>
     <t>Totales</t>
   </si>
@@ -213,9 +216,6 @@
   </si>
   <si>
     <t>Cuscatlán</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Tasa cero Sillones</t>
@@ -716,6 +716,68 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -861,68 +923,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -942,7 +942,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}" name="Tabla1" displayName="Tabla1" ref="A2:K14" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}" name="Tabla1" displayName="Tabla1" ref="A2:K14" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A2:K14" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K14">
     <sortCondition ref="D3:D14"/>
@@ -950,15 +950,15 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4E2F1548-5DA7-4ADC-946F-053ED807460A}" name="Banco"/>
     <tableColumn id="2" xr3:uid="{11D77EA7-239F-47E1-9378-FFBA07ACDD06}" name="Tarjeta"/>
-    <tableColumn id="3" xr3:uid="{EFA2D810-AA01-4F56-B9AC-1F88A60DCC7F}" name="Monto" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{B3C14A42-22A4-422A-B5B2-35BF05E35EEF}" name="Fecha Corte" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{6869DC75-BE3A-4901-B724-828BF9F9A7D0}" name="Deuda a largo Plazo" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{2810DEE2-032A-4175-802A-5F857D20294D}" name="Cuota a largo plazo" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{F7FEE37A-0726-482F-99D8-F9C07724EC3E}" name="Suscripciones y otros gastos automáticos" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{F6732F4E-388B-4DFE-91E1-BA3615EF330A}" name="Cantidad Adeudada" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{1F40E7A5-C692-4043-8A55-5DC3E0A18EC9}" name="Fecha de pago" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{186BC069-E422-445A-BA99-6BBE52ACA160}" name="Pendiente para siguiente corte" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{ABA9A903-D4C5-4280-9E9A-38F020209A6A}" name="%" dataDxfId="18" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" xr3:uid="{EFA2D810-AA01-4F56-B9AC-1F88A60DCC7F}" name="Monto" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{B3C14A42-22A4-422A-B5B2-35BF05E35EEF}" name="Fecha Corte" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6869DC75-BE3A-4901-B724-828BF9F9A7D0}" name="Deuda a largo Plazo" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{2810DEE2-032A-4175-802A-5F857D20294D}" name="Cuota a largo plazo" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{F7FEE37A-0726-482F-99D8-F9C07724EC3E}" name="Suscripciones y otros gastos automáticos" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{F6732F4E-388B-4DFE-91E1-BA3615EF330A}" name="Cantidad Adeudada" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{1F40E7A5-C692-4043-8A55-5DC3E0A18EC9}" name="Fecha de pago" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{186BC069-E422-445A-BA99-6BBE52ACA160}" name="Pendiente para siguiente corte" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{ABA9A903-D4C5-4280-9E9A-38F020209A6A}" name="%" dataDxfId="3" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1261,22 +1261,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0DE2A9-9218-4E10-883D-DF66D771FC39}">
-  <dimension ref="B1:K37"/>
+  <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView zoomScale="121" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A4" zoomScale="121" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="3.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1298,14 +1298,11 @@
       <c r="D2" s="8">
         <v>60</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="8">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1315,14 +1312,11 @@
       <c r="D3" s="8">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1332,14 +1326,11 @@
       <c r="D4" s="8">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1353,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1358,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1377,14 +1368,11 @@
       <c r="D7" s="8">
         <v>100</v>
       </c>
-      <c r="E7" t="s">
-        <v>59</v>
-      </c>
       <c r="F7" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1394,11 +1382,8 @@
       <c r="D8" s="58">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1409,7 +1394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1413,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1438,21 +1423,14 @@
       <c r="D12">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="H12">
         <v>8286917</v>
       </c>
-      <c r="K12">
-        <f>550-95-60-50</f>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1460,7 +1438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1471,9 +1449,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
@@ -1481,11 +1459,8 @@
       <c r="D15">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1474,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1512,7 +1487,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1526,24 +1501,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>$C$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>$C$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1556,26 +1531,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B43D18-F407-4702-B159-A2C7E22E2016}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="16.109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
+    <col min="7" max="8" width="16.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1610,7 +1585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
@@ -1633,7 +1608,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
         <v>56</v>
       </c>
@@ -1656,7 +1631,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="38"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1674,14 +1649,14 @@
         <v>46118</v>
       </c>
       <c r="J5" s="12">
-        <v>539</v>
+        <v>586.71</v>
       </c>
       <c r="K5" s="31">
         <v>0.27900000000000003</v>
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1706,7 +1681,7 @@
       </c>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1728,7 +1703,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>39</v>
       </c>
@@ -1751,7 +1726,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
@@ -1774,7 +1749,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1797,7 +1772,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -1820,7 +1795,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>58</v>
       </c>
@@ -1843,7 +1818,7 @@
       <c r="J12" s="42"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>58</v>
       </c>
@@ -1864,7 +1839,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1886,19 +1861,19 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21">
         <f>SUM(J3:J13)</f>
-        <v>593.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>641.55000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="20"/>
       <c r="I15" s="20"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1915,13 +1890,13 @@
         <v>46111</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1929,28 +1904,24 @@
         <v>150</v>
       </c>
       <c r="C18" s="2">
-        <v>60</v>
-      </c>
-      <c r="D18" s="2">
-        <v>65</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2">
         <v>150</v>
       </c>
       <c r="G18" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="22"/>
       <c r="J18" s="23">
         <f>SUM(B18:I18)</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="55"/>
@@ -1959,509 +1930,509 @@
       <c r="H19" s="2"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="12"/>
       <c r="H20" s="56" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="25">
         <f>+H14+J14+G14</f>
-        <v>593.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>641.55000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="12"/>
       <c r="H21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="25">
         <f>+J18-H14-G14</f>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="20"/>
       <c r="H22" s="27" t="s">
         <v>54</v>
       </c>
       <c r="I22" s="25">
         <f>+I21-J14</f>
-        <v>-8.8400000000000318</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>-241.55000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D23" s="12"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D24" s="12"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="12"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D26" s="12"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" s="12"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D28" s="12"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D29" s="12"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D30" s="11"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="11"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="11"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="11"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="11"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="11"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="11"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="11"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="11"/>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" s="11"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="12"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" s="20"/>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" s="20"/>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="20"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="20"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" s="20"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="20"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="20"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="20"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D56" s="20"/>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="20"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="20"/>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="20"/>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="20"/>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="20"/>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="20"/>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="20"/>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70" s="20"/>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="20"/>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="20"/>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="20"/>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="20"/>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77" s="20"/>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="20"/>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="20"/>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80" s="20"/>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="20"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="20"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="20"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="20"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="20"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="20"/>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="20"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="20"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="20"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="20"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="20"/>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="20"/>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="20"/>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="20"/>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="20"/>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="20"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="20"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D103" s="20"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D104" s="20"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D105" s="20"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D108" s="20"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D109" s="20"/>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D110" s="20"/>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D111" s="20"/>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D112" s="20"/>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D113" s="20"/>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D114" s="20"/>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D116" s="20"/>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D117" s="20"/>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D118" s="20"/>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D120" s="20"/>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D121" s="20"/>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D122" s="20"/>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D123" s="20"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D124" s="20"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D125" s="20"/>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I131" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D16">
-    <cfRule type="timePeriod" dxfId="13" priority="37" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="24" priority="37" timePeriod="nextMonth">
       <formula>AND(MONTH(D1)=MONTH(EDATE(TODAY(),0+1)),YEAR(D1)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="12" priority="38" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="23" priority="38" timePeriod="thisMonth">
       <formula>AND(MONTH(D1)=MONTH(TODAY()),YEAR(D1)=YEAR(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="11" priority="39" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="22" priority="39" timePeriod="lastMonth">
       <formula>AND(MONTH(D1)=MONTH(EDATE(TODAY(),0-1)),YEAR(D1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D29 D31 D41:D1048576">
-    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="21" priority="1" timePeriod="nextMonth">
       <formula>AND(MONTH(D22)=MONTH(EDATE(TODAY(),0+1)),YEAR(D22)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="9" priority="2" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="20" priority="2" timePeriod="thisMonth">
       <formula>AND(MONTH(D22)=MONTH(TODAY()),YEAR(D22)=YEAR(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="3" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="19" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(D22)=MONTH(EDATE(TODAY(),0-1)),YEAR(D22)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="timePeriod" dxfId="7" priority="40" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="18" priority="40" timePeriod="nextMonth">
       <formula>AND(MONTH(I1)=MONTH(EDATE(TODAY(),0+1)),YEAR(I1)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="6" priority="41" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="17" priority="41" timePeriod="thisMonth">
       <formula>AND(MONTH(I1)=MONTH(TODAY()),YEAR(I1)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="5" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I22">
-    <cfRule type="cellIs" dxfId="4" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="3" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2477,18 +2448,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE522B-09DD-4490-9CA8-387DE173331A}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="3" width="11.44140625" style="12"/>
-    <col min="4" max="4" width="11.88671875" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="12"/>
+    <col min="4" max="4" width="11.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>49</v>
       </c>
@@ -2499,7 +2470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="47"/>
       <c r="B2" s="11">
         <v>0</v>
@@ -2512,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="47">
         <v>46037</v>
       </c>
@@ -2527,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="47">
         <v>46053</v>
       </c>
@@ -2535,14 +2506,14 @@
         <v>70</v>
       </c>
       <c r="C4" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D4" t="b">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="47">
         <v>46068</v>
       </c>
@@ -2557,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="47">
         <v>46081</v>
       </c>
@@ -2572,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="47">
         <v>46096</v>
       </c>
@@ -2591,7 +2562,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="47">
         <v>46112</v>
       </c>
@@ -2610,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="47">
         <v>46127</v>
       </c>
@@ -2629,7 +2600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>46142</v>
       </c>
@@ -2648,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="47">
         <v>46157</v>
       </c>
@@ -2667,7 +2638,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="47">
         <v>46173</v>
       </c>
@@ -2686,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="47">
         <v>46188</v>
       </c>
@@ -2709,7 +2680,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="47">
         <v>46203</v>
       </c>
@@ -2722,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="47">
         <v>46218</v>
       </c>
@@ -2735,7 +2706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>46234</v>
       </c>
@@ -2748,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="47">
         <v>46249</v>
       </c>
@@ -2761,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="47">
         <v>46265</v>
       </c>
@@ -2774,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="47">
         <v>46280</v>
       </c>
@@ -2787,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="47">
         <v>46295</v>
       </c>
@@ -2800,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="47">
         <v>46310</v>
       </c>
@@ -2813,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="47">
         <v>46326</v>
       </c>
@@ -2826,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="47">
         <v>46341</v>
       </c>
@@ -2839,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="47">
         <v>46356</v>
       </c>
@@ -2852,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="47">
         <v>46371</v>
       </c>
@@ -2865,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>50</v>
       </c>
@@ -2878,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>51</v>
       </c>
@@ -2891,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="47">
         <v>46387</v>
       </c>
@@ -2904,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="47">
         <v>46402</v>
       </c>
@@ -2917,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="47">
         <v>46418</v>
       </c>
@@ -2930,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="47">
         <v>46433</v>
       </c>
@@ -2943,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="47">
         <v>46446</v>
       </c>
@@ -2956,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="47">
         <v>46461</v>
       </c>
@@ -2969,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="47">
         <v>46477</v>
       </c>
@@ -2982,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="47">
         <v>46492</v>
       </c>
@@ -2995,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="47">
         <v>46507</v>
       </c>
@@ -3008,7 +2979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="47">
         <v>46522</v>
       </c>
@@ -3021,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>46538</v>
       </c>
@@ -3034,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="47">
         <v>46553</v>
       </c>
@@ -3047,7 +3018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="47">
         <v>46568</v>
       </c>
@@ -3060,7 +3031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="47">
         <v>46583</v>
       </c>
@@ -3073,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="47">
         <v>46599</v>
       </c>
@@ -3086,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="47">
         <v>46614</v>
       </c>
@@ -3099,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="47">
         <v>46630</v>
       </c>
@@ -3112,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="47">
         <v>46645</v>
       </c>
@@ -3125,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="47">
         <v>46660</v>
       </c>
@@ -3138,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="47">
         <v>46675</v>
       </c>
@@ -3151,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="47">
         <v>46691</v>
       </c>
@@ -3164,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="47">
         <v>46706</v>
       </c>
@@ -3177,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="47">
         <v>46721</v>
       </c>
@@ -3190,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="47">
         <v>46736</v>
       </c>
@@ -3203,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="46" t="s">
         <v>50</v>
       </c>
@@ -3216,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="46" t="s">
         <v>51</v>
       </c>
@@ -3229,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="47">
         <v>46752</v>
       </c>
@@ -3242,50 +3213,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="50">
         <f>SUM(B2:B54)</f>
         <v>4610</v>
       </c>
       <c r="C55" s="51">
         <f>SUM(C2:C54)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="60">
         <f ca="1">IFERROR(SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY()),0)-IFERROR(SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY()),0)</f>
-        <v>30</v>
+        <v>-70</v>
       </c>
       <c r="C57" s="61"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="59">
         <f ca="1">IF(SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())=0,0,SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY())/SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY()))</f>
-        <v>1.1363636363636365</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59">
         <f ca="1">MAX(0, SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())-SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY()))</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Vasquez\Desktop\UES-2026\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizi\OneDrive\Escritorio\UES-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2379773D-322D-4870-8881-57E929B9F88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EE8C3-7433-457A-A443-12B57CAFB527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -716,68 +713,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="d\-mmm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -923,6 +858,68 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="d\-mmm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$$-440A]* #,##0.00_-;\-[$$-440A]* #,##0.00_-;_-[$$-440A]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -942,7 +939,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}" name="Tabla1" displayName="Tabla1" ref="A2:K14" totalsRowShown="0" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}" name="Tabla1" displayName="Tabla1" ref="A2:K14" totalsRowShown="0" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A2:K14" xr:uid="{34D0B394-EFA3-4F1F-B95B-C46D43801A73}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K14">
     <sortCondition ref="D3:D14"/>
@@ -950,15 +947,15 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{4E2F1548-5DA7-4ADC-946F-053ED807460A}" name="Banco"/>
     <tableColumn id="2" xr3:uid="{11D77EA7-239F-47E1-9378-FFBA07ACDD06}" name="Tarjeta"/>
-    <tableColumn id="3" xr3:uid="{EFA2D810-AA01-4F56-B9AC-1F88A60DCC7F}" name="Monto" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{B3C14A42-22A4-422A-B5B2-35BF05E35EEF}" name="Fecha Corte" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{6869DC75-BE3A-4901-B724-828BF9F9A7D0}" name="Deuda a largo Plazo" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{2810DEE2-032A-4175-802A-5F857D20294D}" name="Cuota a largo plazo" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{F7FEE37A-0726-482F-99D8-F9C07724EC3E}" name="Suscripciones y otros gastos automáticos" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{F6732F4E-388B-4DFE-91E1-BA3615EF330A}" name="Cantidad Adeudada" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{1F40E7A5-C692-4043-8A55-5DC3E0A18EC9}" name="Fecha de pago" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{186BC069-E422-445A-BA99-6BBE52ACA160}" name="Pendiente para siguiente corte" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{ABA9A903-D4C5-4280-9E9A-38F020209A6A}" name="%" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="3" xr3:uid="{EFA2D810-AA01-4F56-B9AC-1F88A60DCC7F}" name="Monto" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{B3C14A42-22A4-422A-B5B2-35BF05E35EEF}" name="Fecha Corte" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{6869DC75-BE3A-4901-B724-828BF9F9A7D0}" name="Deuda a largo Plazo" dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{2810DEE2-032A-4175-802A-5F857D20294D}" name="Cuota a largo plazo" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{F7FEE37A-0726-482F-99D8-F9C07724EC3E}" name="Suscripciones y otros gastos automáticos" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{F6732F4E-388B-4DFE-91E1-BA3615EF330A}" name="Cantidad Adeudada" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{1F40E7A5-C692-4043-8A55-5DC3E0A18EC9}" name="Fecha de pago" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{186BC069-E422-445A-BA99-6BBE52ACA160}" name="Pendiente para siguiente corte" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{ABA9A903-D4C5-4280-9E9A-38F020209A6A}" name="%" dataDxfId="18" dataCellStyle="Porcentaje"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1264,19 +1261,19 @@
   <dimension ref="B1:H37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="121" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="3.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="13" t="s">
         <v>14</v>
       </c>
@@ -1288,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1344,7 +1341,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1355,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1402,7 +1399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -1413,7 +1410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>8286917</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +1446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>59</v>
       </c>
@@ -1460,7 +1457,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
         <v>11</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1484,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1501,24 +1498,24 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="30.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>$C$10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>$C$7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>$C$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1531,26 +1528,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B43D18-F407-4702-B159-A2C7E22E2016}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="12" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="12" customWidth="1"/>
+    <col min="7" max="8" width="16.109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
@@ -1608,7 +1605,7 @@
       <c r="J3" s="42"/>
       <c r="K3" s="43"/>
     </row>
-    <row r="4" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>56</v>
       </c>
@@ -1631,7 +1628,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="38"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1656,7 +1653,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1677,11 +1674,11 @@
         <v>46118</v>
       </c>
       <c r="J6" s="12">
-        <v>54.84</v>
+        <v>60.79</v>
       </c>
       <c r="K6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1703,7 +1700,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>39</v>
       </c>
@@ -1726,7 +1723,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="52" t="s">
         <v>29</v>
       </c>
@@ -1749,7 +1746,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="54"/>
     </row>
-    <row r="10" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1772,7 +1769,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>29</v>
       </c>
@@ -1795,7 +1792,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="38"/>
     </row>
-    <row r="12" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="39" t="s">
         <v>58</v>
       </c>
@@ -1818,7 +1815,7 @@
       <c r="J12" s="42"/>
       <c r="K12" s="43"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="39" t="s">
         <v>58</v>
       </c>
@@ -1839,7 +1836,7 @@
         <v>45946</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1861,19 +1858,19 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21">
         <f>SUM(J3:J13)</f>
-        <v>641.55000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>647.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D15" s="20"/>
       <c r="I15" s="20"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D16" s="20"/>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1896,7 +1893,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1904,24 +1901,30 @@
         <v>150</v>
       </c>
       <c r="C18" s="2">
+        <v>60</v>
+      </c>
+      <c r="D18" s="2">
         <v>30</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>60</v>
+      </c>
       <c r="F18" s="2">
         <v>150</v>
       </c>
       <c r="G18" s="2">
         <v>70</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2">
+        <v>400</v>
+      </c>
       <c r="I18" s="22"/>
       <c r="J18" s="23">
         <f>SUM(B18:I18)</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="55"/>
@@ -1930,509 +1933,509 @@
       <c r="H19" s="2"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="12"/>
       <c r="H20" s="56" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="25">
         <f>+H14+J14+G14</f>
-        <v>641.55000000000007</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>647.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="12"/>
       <c r="H21" s="26" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="25">
         <f>+J18-H14-G14</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="20"/>
       <c r="H22" s="27" t="s">
         <v>54</v>
       </c>
       <c r="I22" s="25">
         <f>+I21-J14</f>
-        <v>-241.55000000000007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D23" s="12"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D24" s="12"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D25" s="12"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D26" s="12"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D27" s="12"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D28" s="12"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D29" s="12"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D30" s="11"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D32" s="11"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="11"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34" s="11"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35" s="11"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36" s="11"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="11"/>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="11"/>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="11"/>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="11"/>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="12"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="12"/>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="20"/>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="20"/>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="20"/>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="20"/>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="20"/>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="20"/>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="20"/>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D53" s="20"/>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D54" s="20"/>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D55" s="20"/>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D56" s="20"/>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D57" s="20"/>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D58" s="20"/>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D59" s="20"/>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D60" s="20"/>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D63" s="20"/>
       <c r="I63" s="20"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D64" s="20"/>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" s="20"/>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" s="20"/>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" s="20"/>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" s="20"/>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" s="20"/>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" s="20"/>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" s="20"/>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" s="20"/>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" s="20"/>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D76" s="20"/>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D77" s="20"/>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" s="20"/>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D79" s="20"/>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D80" s="20"/>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D81" s="20"/>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D82" s="20"/>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D83" s="20"/>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D84" s="20"/>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D85" s="20"/>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D87" s="20"/>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D88" s="20"/>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D89" s="20"/>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D90" s="20"/>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D91" s="20"/>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D92" s="20"/>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D93" s="20"/>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D94" s="20"/>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D95" s="20"/>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D96" s="20"/>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" s="20"/>
       <c r="I98" s="20"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" s="20"/>
       <c r="I101" s="20"/>
     </row>
-    <row r="102" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D103" s="20"/>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D104" s="20"/>
       <c r="I104" s="20"/>
     </row>
-    <row r="105" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D105" s="20"/>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" s="20"/>
       <c r="I108" s="20"/>
     </row>
-    <row r="109" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" s="20"/>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" s="20"/>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D111" s="20"/>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" s="20"/>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" s="20"/>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" s="20"/>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" s="20"/>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" s="20"/>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D118" s="20"/>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" s="20"/>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D121" s="20"/>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" s="20"/>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" s="20"/>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D124" s="20"/>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D125" s="20"/>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I127" s="20"/>
     </row>
-    <row r="128" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.3">
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:9" x14ac:dyDescent="0.3">
       <c r="I131" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D16">
-    <cfRule type="timePeriod" dxfId="24" priority="37" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="13" priority="37" timePeriod="nextMonth">
       <formula>AND(MONTH(D1)=MONTH(EDATE(TODAY(),0+1)),YEAR(D1)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="23" priority="38" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="12" priority="38" timePeriod="thisMonth">
       <formula>AND(MONTH(D1)=MONTH(TODAY()),YEAR(D1)=YEAR(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="22" priority="39" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="11" priority="39" timePeriod="lastMonth">
       <formula>AND(MONTH(D1)=MONTH(EDATE(TODAY(),0-1)),YEAR(D1)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D29 D31 D41:D1048576">
-    <cfRule type="timePeriod" dxfId="21" priority="1" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="10" priority="1" timePeriod="nextMonth">
       <formula>AND(MONTH(D22)=MONTH(EDATE(TODAY(),0+1)),YEAR(D22)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="20" priority="2" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="9" priority="2" timePeriod="thisMonth">
       <formula>AND(MONTH(D22)=MONTH(TODAY()),YEAR(D22)=YEAR(TODAY()))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="19" priority="3" timePeriod="lastMonth">
+    <cfRule type="timePeriod" dxfId="8" priority="3" timePeriod="lastMonth">
       <formula>AND(MONTH(D22)=MONTH(EDATE(TODAY(),0-1)),YEAR(D22)=YEAR(EDATE(TODAY(),0-1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="timePeriod" dxfId="18" priority="40" timePeriod="nextMonth">
+    <cfRule type="timePeriod" dxfId="7" priority="40" timePeriod="nextMonth">
       <formula>AND(MONTH(I1)=MONTH(EDATE(TODAY(),0+1)),YEAR(I1)=YEAR(EDATE(TODAY(),0+1)))</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="17" priority="41" timePeriod="thisMonth">
+    <cfRule type="timePeriod" dxfId="6" priority="41" timePeriod="thisMonth">
       <formula>AND(MONTH(I1)=MONTH(TODAY()),YEAR(I1)=YEAR(TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="16" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I22">
-    <cfRule type="cellIs" dxfId="15" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="42" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="14" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="43" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2448,18 +2451,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE522B-09DD-4490-9CA8-387DE173331A}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="10" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="12"/>
-    <col min="4" max="4" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="2" max="3" width="11.44140625" style="12"/>
+    <col min="4" max="4" width="11.88671875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>49</v>
       </c>
@@ -2470,7 +2473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="47"/>
       <c r="B2" s="11">
         <v>0</v>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="47">
         <v>46037</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="47">
         <v>46053</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="47">
         <v>46068</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="47">
         <v>46081</v>
       </c>
@@ -2543,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="47">
         <v>46096</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="47">
         <v>46112</v>
       </c>
@@ -2581,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="47">
         <v>46127</v>
       </c>
@@ -2600,7 +2603,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>46142</v>
       </c>
@@ -2619,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="47">
         <v>46157</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="47">
         <v>46173</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="47">
         <v>46188</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="47">
         <v>46203</v>
       </c>
@@ -2693,7 +2696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="47">
         <v>46218</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="47">
         <v>46234</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="47">
         <v>46249</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="47">
         <v>46265</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="47">
         <v>46280</v>
       </c>
@@ -2758,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="47">
         <v>46295</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="47">
         <v>46310</v>
       </c>
@@ -2784,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="47">
         <v>46326</v>
       </c>
@@ -2797,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="47">
         <v>46341</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="47">
         <v>46356</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="47">
         <v>46371</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="s">
         <v>50</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="s">
         <v>51</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="47">
         <v>46387</v>
       </c>
@@ -2875,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="47">
         <v>46402</v>
       </c>
@@ -2888,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="47">
         <v>46418</v>
       </c>
@@ -2901,7 +2904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="47">
         <v>46433</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="47">
         <v>46446</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="47">
         <v>46461</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="47">
         <v>46477</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="47">
         <v>46492</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="47">
         <v>46507</v>
       </c>
@@ -2979,7 +2982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="47">
         <v>46522</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="47">
         <v>46538</v>
       </c>
@@ -3005,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="47">
         <v>46553</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="47">
         <v>46568</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="47">
         <v>46583</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="47">
         <v>46599</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="47">
         <v>46614</v>
       </c>
@@ -3070,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="47">
         <v>46630</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="47">
         <v>46645</v>
       </c>
@@ -3096,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="47">
         <v>46660</v>
       </c>
@@ -3109,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="47">
         <v>46675</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="47">
         <v>46691</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="47">
         <v>46706</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="47">
         <v>46721</v>
       </c>
@@ -3161,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="47">
         <v>46736</v>
       </c>
@@ -3174,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="46" t="s">
         <v>50</v>
       </c>
@@ -3187,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="46" t="s">
         <v>51</v>
       </c>
@@ -3200,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="47">
         <v>46752</v>
       </c>
@@ -3213,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" s="50">
         <f>SUM(B2:B54)</f>
         <v>4610</v>
@@ -3223,40 +3226,40 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="60">
         <f ca="1">IFERROR(SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY()),0)-IFERROR(SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY()),0)</f>
         <v>-70</v>
       </c>
       <c r="C57" s="61"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B58" s="59">
         <f ca="1">IF(SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())=0,0,SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY())/SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY()))</f>
         <v>0.68181818181818177</v>
       </c>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59">
         <f ca="1">MAX(0, SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())-SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY()))</f>
         <v>70</v>
       </c>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>

--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizi\OneDrive\Escritorio\UES-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EE8C3-7433-457A-A443-12B57CAFB527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E256FC-D1D2-479D-947A-A096D89AC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FB526614-3037-4115-BDD6-0ED9B92D9E7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Totales</t>
   </si>
@@ -218,7 +218,7 @@
     <t>Tasa cero Sillones</t>
   </si>
   <si>
-    <t>comision</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA0DE2A9-9218-4E10-883D-DF66D771FC39}">
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="121" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="121" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1312,9 @@
       <c r="F3" s="8">
         <v>50</v>
       </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -1368,6 +1371,9 @@
       <c r="F7" s="8">
         <v>100</v>
       </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
@@ -1409,6 +1415,9 @@
       <c r="F11">
         <v>25</v>
       </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1423,6 +1432,9 @@
       <c r="F12">
         <v>5</v>
       </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
       <c r="H12">
         <v>8286917</v>
       </c>
@@ -1444,6 +1456,9 @@
       </c>
       <c r="F14">
         <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
@@ -1528,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B43D18-F407-4702-B159-A2C7E22E2016}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,17 +1893,13 @@
         <v>36</v>
       </c>
       <c r="C17" s="24">
-        <v>46081</v>
+        <v>46096</v>
       </c>
       <c r="D17" s="24">
-        <v>46096</v>
-      </c>
-      <c r="E17" s="24">
         <v>46111</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -1898,30 +1909,22 @@
         <v>35</v>
       </c>
       <c r="B18" s="57">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
         <v>60</v>
       </c>
-      <c r="D18" s="2">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2">
-        <v>60</v>
-      </c>
-      <c r="F18" s="2">
-        <v>150</v>
-      </c>
-      <c r="G18" s="2">
-        <v>70</v>
-      </c>
-      <c r="H18" s="2">
-        <v>400</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="22"/>
       <c r="J18" s="23">
         <f>SUM(B18:I18)</f>
-        <v>920</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1950,7 +1953,7 @@
       </c>
       <c r="I21" s="25">
         <f>+J18-H14-G14</f>
-        <v>920</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1960,7 +1963,7 @@
       </c>
       <c r="I22" s="25">
         <f>+I21-J14</f>
-        <v>272.5</v>
+        <v>-37.5</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -2451,8 +2454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAE522B-09DD-4490-9CA8-387DE173331A}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3238,17 +3241,11 @@
       <c r="C57" s="61"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="59">
-        <f ca="1">IF(SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())=0,0,SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY())/SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY()))</f>
-        <v>0.68181818181818177</v>
-      </c>
+      <c r="B58" s="59"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <f ca="1">MAX(0, SUMIFS(B2:B54,A2:A54,"&lt;="&amp;TODAY())-SUMIFS(C2:C54,A2:A54,"&lt;="&amp;TODAY()))</f>
-        <v>70</v>
-      </c>
+      <c r="B59"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
